--- a/Networks/Parte3/tests.xlsx
+++ b/Networks/Parte3/tests.xlsx
@@ -435,25 +435,25 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.9752</v>
+        <v>0.9852</v>
       </c>
       <c r="D2">
-        <v>0.9751320932219009</v>
+        <v>0.9851713305628002</v>
       </c>
       <c r="E2">
-        <v>0.9900199600798404</v>
+        <v>0.9960079840319361</v>
       </c>
       <c r="F2">
-        <v>0.9879759519038075</v>
+        <v>0.9899598393574297</v>
       </c>
       <c r="G2">
-        <v>0.958</v>
+        <v>0.973630831643002</v>
       </c>
       <c r="H2">
-        <v>0.959349593495935</v>
+        <v>0.9771598808341607</v>
       </c>
       <c r="I2">
-        <v>0.9803149606299214</v>
+        <v>0.9890981169474727</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -464,25 +464,25 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.992</v>
+        <v>0.9944</v>
       </c>
       <c r="D3">
-        <v>0.9919943855775422</v>
+        <v>0.9943959943959945</v>
       </c>
       <c r="E3">
-        <v>0.998003992015968</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.998</v>
+        <v>0.9990009990009989</v>
       </c>
       <c r="G3">
-        <v>0.9839679358717435</v>
+        <v>0.9869869869869869</v>
       </c>
       <c r="H3">
-        <v>0.984</v>
+        <v>0.988988988988989</v>
       </c>
       <c r="I3">
-        <v>0.996</v>
+        <v>0.997002997002997</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,10 +493,10 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>0.9944</v>
+        <v>0.9948</v>
       </c>
       <c r="D4">
-        <v>0.994398337915973</v>
+        <v>0.9947983703597827</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>0.9990009990009989</v>
       </c>
       <c r="G4">
-        <v>0.9870388833499502</v>
+        <v>0.9880239520958083</v>
       </c>
       <c r="H4">
-        <v>0.9879518072289156</v>
+        <v>0.9889669007021062</v>
       </c>
       <c r="I4">
         <v>0.998</v>
@@ -525,22 +525,22 @@
         <v>0.994</v>
       </c>
       <c r="D5">
-        <v>0.9939979371155722</v>
+        <v>0.9939927843783458</v>
       </c>
       <c r="E5">
-        <v>0.9990009990009989</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0.9990009990009989</v>
       </c>
       <c r="G5">
-        <v>0.9870388833499502</v>
+        <v>0.9859719438877755</v>
       </c>
       <c r="H5">
-        <v>0.9879518072289156</v>
+        <v>0.9869869869869869</v>
       </c>
       <c r="I5">
-        <v>0.9969969969969971</v>
+        <v>0.998003992015968</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,10 +551,10 @@
         <v>56</v>
       </c>
       <c r="C6">
-        <v>0.994</v>
+        <v>0.9948</v>
       </c>
       <c r="D6">
-        <v>0.993995510544156</v>
+        <v>0.9947983703597827</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -563,13 +563,13 @@
         <v>0.9990009990009989</v>
       </c>
       <c r="G6">
-        <v>0.9870388833499502</v>
+        <v>0.9880239520958083</v>
       </c>
       <c r="H6">
-        <v>0.9869346733668342</v>
+        <v>0.9889669007021062</v>
       </c>
       <c r="I6">
-        <v>0.997002997002997</v>
+        <v>0.998</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/tests.xlsx
+++ b/Networks/Parte3/tests.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jorge\Documents\Universidad\Sistemas Inteligentes\Tareas\Artifitial-Neural-Networks\Networks\Parte3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A2EA8B-4E53-4D74-820C-1C2E60DD060D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,11 +113,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -153,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +199,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +251,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +444,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -435,28 +489,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.9852</v>
+        <v>0.98519999999999996</v>
       </c>
       <c r="D2">
-        <v>0.9851713305628002</v>
+        <v>0.98517133056280015</v>
       </c>
       <c r="E2">
-        <v>0.9960079840319361</v>
+        <v>0.99600798403193613</v>
       </c>
       <c r="F2">
-        <v>0.9899598393574297</v>
+        <v>0.98995983935742971</v>
       </c>
       <c r="G2">
-        <v>0.973630831643002</v>
+        <v>0.97363083164300201</v>
       </c>
       <c r="H2">
-        <v>0.9771598808341607</v>
+        <v>0.97715988083416072</v>
       </c>
       <c r="I2">
-        <v>0.9890981169474727</v>
+        <v>0.98909811694747274</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -464,28 +518,28 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.9944</v>
+        <v>0.99439999999999995</v>
       </c>
       <c r="D3">
-        <v>0.9943959943959945</v>
+        <v>0.99439599439599446</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.9990009990009989</v>
+        <v>0.99900099900099892</v>
       </c>
       <c r="G3">
-        <v>0.9869869869869869</v>
+        <v>0.98698698698698695</v>
       </c>
       <c r="H3">
-        <v>0.988988988988989</v>
+        <v>0.98898898898898902</v>
       </c>
       <c r="I3">
-        <v>0.997002997002997</v>
+        <v>0.99700299700299699</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -493,28 +547,28 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>0.9948</v>
+        <v>0.99480000000000002</v>
       </c>
       <c r="D4">
-        <v>0.9947983703597827</v>
+        <v>0.99479837035978269</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.9990009990009989</v>
+        <v>0.99900099900099892</v>
       </c>
       <c r="G4">
-        <v>0.9880239520958083</v>
+        <v>0.98802395209580829</v>
       </c>
       <c r="H4">
-        <v>0.9889669007021062</v>
+        <v>0.98896690070210624</v>
       </c>
       <c r="I4">
         <v>0.998</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -522,28 +576,28 @@
         <v>64</v>
       </c>
       <c r="C5">
-        <v>0.994</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="D5">
-        <v>0.9939927843783458</v>
+        <v>0.99399278437834582</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9990009990009989</v>
+        <v>0.99900099900099892</v>
       </c>
       <c r="G5">
-        <v>0.9859719438877755</v>
+        <v>0.98597194388777554</v>
       </c>
       <c r="H5">
-        <v>0.9869869869869869</v>
+        <v>0.98698698698698695</v>
       </c>
       <c r="I5">
-        <v>0.998003992015968</v>
+        <v>0.99800399201596801</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -551,22 +605,22 @@
         <v>56</v>
       </c>
       <c r="C6">
-        <v>0.9948</v>
+        <v>0.99480000000000002</v>
       </c>
       <c r="D6">
-        <v>0.9947983703597827</v>
+        <v>0.99479837035978269</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.9990009990009989</v>
+        <v>0.99900099900099892</v>
       </c>
       <c r="G6">
-        <v>0.9880239520958083</v>
+        <v>0.98802395209580829</v>
       </c>
       <c r="H6">
-        <v>0.9889669007021062</v>
+        <v>0.98896690070210624</v>
       </c>
       <c r="I6">
         <v>0.998</v>

--- a/Networks/Parte3/tests.xlsx
+++ b/Networks/Parte3/tests.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jorge\Documents\Universidad\Sistemas Inteligentes\Tareas\Artifitial-Neural-Networks\Networks\Parte3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A2EA8B-4E53-4D74-820C-1C2E60DD060D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,19 +107,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -167,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,27 +185,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,24 +219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,18 +394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -489,28 +435,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.98519999999999996</v>
+        <v>0.9764</v>
       </c>
       <c r="D2">
-        <v>0.98517133056280015</v>
+        <v>0.9763241967298759</v>
       </c>
       <c r="E2">
-        <v>0.99600798403193613</v>
+        <v>0.9890764647467726</v>
       </c>
       <c r="F2">
-        <v>0.98995983935742971</v>
+        <v>0.9849548645937813</v>
       </c>
       <c r="G2">
-        <v>0.97363083164300201</v>
+        <v>0.9626639757820383</v>
       </c>
       <c r="H2">
-        <v>0.97715988083416072</v>
+        <v>0.9646107178968656</v>
       </c>
       <c r="I2">
-        <v>0.98909811694747274</v>
+        <v>0.9803149606299214</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -518,28 +464,28 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.99439999999999995</v>
+        <v>0.9923999999999999</v>
       </c>
       <c r="D3">
-        <v>0.99439599439599446</v>
+        <v>0.9923943863751479</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.9990009990009989</v>
       </c>
       <c r="F3">
-        <v>0.99900099900099892</v>
+        <v>0.997002997002997</v>
       </c>
       <c r="G3">
-        <v>0.98698698698698695</v>
+        <v>0.9839679358717435</v>
       </c>
       <c r="H3">
-        <v>0.98898898898898902</v>
+        <v>0.984</v>
       </c>
       <c r="I3">
-        <v>0.99700299700299699</v>
+        <v>0.998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -547,28 +493,28 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>0.99480000000000002</v>
+        <v>0.9948</v>
       </c>
       <c r="D4">
-        <v>0.99479837035978269</v>
+        <v>0.9947983703597828</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.99900099900099892</v>
+        <v>0.9990009990009989</v>
       </c>
       <c r="G4">
-        <v>0.98802395209580829</v>
+        <v>0.9880239520958083</v>
       </c>
       <c r="H4">
-        <v>0.98896690070210624</v>
+        <v>0.9889669007021062</v>
       </c>
       <c r="I4">
         <v>0.998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -576,28 +522,28 @@
         <v>64</v>
       </c>
       <c r="C5">
-        <v>0.99399999999999999</v>
+        <v>0.9948</v>
       </c>
       <c r="D5">
-        <v>0.99399278437834582</v>
+        <v>0.9947983703597828</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.99900099900099892</v>
+        <v>0.9990009990009989</v>
       </c>
       <c r="G5">
-        <v>0.98597194388777554</v>
+        <v>0.9880239520958083</v>
       </c>
       <c r="H5">
-        <v>0.98698698698698695</v>
+        <v>0.9889669007021062</v>
       </c>
       <c r="I5">
-        <v>0.99800399201596801</v>
+        <v>0.998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -605,22 +551,22 @@
         <v>56</v>
       </c>
       <c r="C6">
-        <v>0.99480000000000002</v>
+        <v>0.9948</v>
       </c>
       <c r="D6">
-        <v>0.99479837035978269</v>
+        <v>0.9947983703597828</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.99900099900099892</v>
+        <v>0.9990009990009989</v>
       </c>
       <c r="G6">
-        <v>0.98802395209580829</v>
+        <v>0.9880239520958083</v>
       </c>
       <c r="H6">
-        <v>0.98896690070210624</v>
+        <v>0.9889669007021062</v>
       </c>
       <c r="I6">
         <v>0.998</v>

--- a/Networks/Parte3/tests.xlsx
+++ b/Networks/Parte3/tests.xlsx
@@ -435,25 +435,25 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.9764</v>
+        <v>0.986</v>
       </c>
       <c r="D2">
-        <v>0.9763241967298759</v>
+        <v>0.9859838095952398</v>
       </c>
       <c r="E2">
-        <v>0.9890764647467726</v>
+        <v>0.998</v>
       </c>
       <c r="F2">
-        <v>0.9849548645937813</v>
+        <v>0.996</v>
       </c>
       <c r="G2">
-        <v>0.9626639757820383</v>
+        <v>0.9728643216080402</v>
       </c>
       <c r="H2">
-        <v>0.9646107178968656</v>
+        <v>0.974</v>
       </c>
       <c r="I2">
-        <v>0.9803149606299214</v>
+        <v>0.9890547263681593</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -464,25 +464,25 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.9923999999999999</v>
+        <v>0.9928</v>
       </c>
       <c r="D3">
-        <v>0.9923943863751479</v>
+        <v>0.9927939867747483</v>
       </c>
       <c r="E3">
         <v>0.9990009990009989</v>
       </c>
       <c r="F3">
-        <v>0.997002997002997</v>
+        <v>0.9990009990009989</v>
       </c>
       <c r="G3">
         <v>0.9839679358717435</v>
       </c>
       <c r="H3">
-        <v>0.984</v>
+        <v>0.986</v>
       </c>
       <c r="I3">
-        <v>0.998</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,10 +493,10 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>0.9948</v>
+        <v>0.994</v>
       </c>
       <c r="D4">
-        <v>0.9947983703597828</v>
+        <v>0.993998571303306</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>0.9990009990009989</v>
       </c>
       <c r="G4">
-        <v>0.9880239520958083</v>
+        <v>0.9860834990059641</v>
       </c>
       <c r="H4">
-        <v>0.9889669007021062</v>
+        <v>0.9869083585095669</v>
       </c>
       <c r="I4">
         <v>0.998</v>
@@ -522,10 +522,10 @@
         <v>64</v>
       </c>
       <c r="C5">
-        <v>0.9948</v>
+        <v>0.9944</v>
       </c>
       <c r="D5">
-        <v>0.9947983703597828</v>
+        <v>0.9943983379159729</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>0.9990009990009989</v>
       </c>
       <c r="G5">
-        <v>0.9880239520958083</v>
+        <v>0.9870388833499502</v>
       </c>
       <c r="H5">
-        <v>0.9889669007021062</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="I5">
         <v>0.998</v>
@@ -551,25 +551,25 @@
         <v>56</v>
       </c>
       <c r="C6">
-        <v>0.9948</v>
+        <v>0.9944</v>
       </c>
       <c r="D6">
-        <v>0.9947983703597828</v>
+        <v>0.9943975967975968</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.9990009990009989</v>
       </c>
       <c r="F6">
         <v>0.9990009990009989</v>
       </c>
       <c r="G6">
-        <v>0.9880239520958083</v>
+        <v>0.988</v>
       </c>
       <c r="H6">
-        <v>0.9889669007021062</v>
+        <v>0.988988988988989</v>
       </c>
       <c r="I6">
-        <v>0.998</v>
+        <v>0.9969969969969971</v>
       </c>
     </row>
   </sheetData>
